--- a/biology/Médecine/1111_en_santé_et_médecine/1111_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1111_en_santé_et_médecine/1111_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1111_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1111_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1111 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1111_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1111_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une autopsie est attestée pour la première fois, à Constantinople sur un homme de l'armée de Sigurd Ier, roi de Norvège, à son retour de Jérusalem,  dans la Gesta Regum Anglorum de Guillaume de Malmesbury[1].
-1109-1111 : grande famine en Europe occidentale (Irlande, Allemagne, France du Nord), documentée en France par Orderic Vital dans son Historia ecclesiastica, et due à des perturbations climatiques probablement provoquées par un volcan japonais, le mont Asama, entré en éruption en 1608[2],[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une autopsie est attestée pour la première fois, à Constantinople sur un homme de l'armée de Sigurd Ier, roi de Norvège, à son retour de Jérusalem,  dans la Gesta Regum Anglorum de Guillaume de Malmesbury.
+1109-1111 : grande famine en Europe occidentale (Irlande, Allemagne, France du Nord), documentée en France par Orderic Vital dans son Historia ecclesiastica, et due à des perturbations climatiques probablement provoquées par un volcan japonais, le mont Asama, entré en éruption en 1608,.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1111_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1111_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1111-1166 : Adélard de Bath, philosophe, mathématicien et naturaliste anglais, rédige des Quaestiones naturales où il traite, entre autres domaines, « de la physiologie humaine, de l'anatomie et de la psychologie des sensations », et où « il donne ses explications comme le fruit de son initiation à la science arabe, en même temps que le résultat de ses recherches personnelles[4] ».
-1111-1117 : parution en Chine des vingt mille ordonnances du Sheng ji zong lu (« Encyclopédie impériale de la médecine » ou « Recueil du soulagement sacré[5] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1111-1166 : Adélard de Bath, philosophe, mathématicien et naturaliste anglais, rédige des Quaestiones naturales où il traite, entre autres domaines, « de la physiologie humaine, de l'anatomie et de la psychologie des sensations », et où « il donne ses explications comme le fruit de son initiation à la science arabe, en même temps que le résultat de ses recherches personnelles ».
+1111-1117 : parution en Chine des vingt mille ordonnances du Sheng ji zong lu (« Encyclopédie impériale de la médecine » ou « Recueil du soulagement sacré »).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1111_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1111_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Gautier[6]  et Girard[6], barbiers, cités respectivement dans des chartes des abbayes Saint-Serge d'Angers et Saint-Père de Chartres.
-1111-1117 : fl. Kou Zongshi, fonctionnaire du service de santé de l'empereur Song Zhenzong et auteur du Bencao yan yi (« Signification étendue de la matière médicale »), pharmacopée achevée en 1116[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Gautier  et Girard, barbiers, cités respectivement dans des chartes des abbayes Saint-Serge d'Angers et Saint-Père de Chartres.
+1111-1117 : fl. Kou Zongshi, fonctionnaire du service de santé de l'empereur Song Zhenzong et auteur du Bencao yan yi (« Signification étendue de la matière médicale »), pharmacopée achevée en 1116.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1111_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1111_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Omar Ibn Mohammed al-Bakri, dit al-Dhahbi (né à une date inconnue), médecin de Sfax en Tunisie, émigré en Égypte[8].
-Vers 1111 : Basile (né à une date inconnue), médecin bulgare, chef de la secte des bogomiles, exécuté sur le bûcher à Constantinople par l'empereur Alexis Comnène[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Omar Ibn Mohammed al-Bakri, dit al-Dhahbi (né à une date inconnue), médecin de Sfax en Tunisie, émigré en Égypte.
+Vers 1111 : Basile (né à une date inconnue), médecin bulgare, chef de la secte des bogomiles, exécuté sur le bûcher à Constantinople par l'empereur Alexis Comnène.</t>
         </is>
       </c>
     </row>
